--- a/branches/master/StructureDefinition-MedRecordTreatmentLine.xlsx
+++ b/branches/master/StructureDefinition-MedRecordTreatmentLine.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="292">
   <si>
     <t>Path</t>
   </si>
@@ -220,13 +220,190 @@
 </t>
   </si>
   <si>
-    <t>MedicationStatement.implicitRules</t>
+    <t>MedicationStatement.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>MedicationStatement.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -322,28 +499,10 @@
     <t>MedicationStatement.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -477,9 +636,6 @@
   </si>
   <si>
     <t>This is generally only used for "exception" statuses such as "not-taken", "on-hold", "cancelled" or "entered-in-error". The reason for performing the event at all is captured in reasonCode, not here.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>A coded concept indicating the reason for the status of the statement.</t>
@@ -932,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -968,7 +1124,7 @@
     <col min="25" max="25" width="58.13671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
@@ -1451,23 +1607,21 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1516,7 +1670,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1528,13 +1682,13 @@
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -1545,18 +1699,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1603,28 +1757,28 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>77</v>
@@ -1633,19 +1787,19 @@
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>40</v>
@@ -1656,11 +1810,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1676,7 +1830,7 @@
         <v>40</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>80</v>
@@ -1756,7 +1910,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1767,18 +1921,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -1787,19 +1941,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1849,25 +2003,25 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -1878,18 +2032,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>40</v>
@@ -1898,19 +2052,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1960,25 +2114,25 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -1989,15 +2143,15 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>42</v>
@@ -2006,26 +2160,24 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2073,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2085,13 +2237,13 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -2100,9 +2252,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2116,7 +2268,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -2125,16 +2277,16 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2160,13 +2312,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2184,7 +2336,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2199,21 +2351,21 @@
         <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2227,7 +2379,7 @@
         <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -2236,18 +2388,18 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2271,13 +2423,13 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
@@ -2295,7 +2447,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2310,10 +2462,10 @@
         <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2324,7 +2476,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2335,30 +2487,30 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2406,13 +2558,13 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
@@ -2421,10 +2573,10 @@
         <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2433,9 +2585,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2443,31 +2595,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2493,34 +2645,34 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="AF14" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>50</v>
@@ -2532,35 +2684,35 @@
         <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -2569,16 +2721,16 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2604,13 +2756,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -2628,13 +2780,13 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
@@ -2643,10 +2795,10 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2655,40 +2807,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2713,13 +2867,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -2737,28 +2891,28 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2766,18 +2920,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -2786,19 +2940,19 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2824,94 +2978,96 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -2935,13 +3091,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -2959,28 +3115,28 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -2988,11 +3144,9 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3001,7 +3155,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>51</v>
@@ -3013,16 +3167,16 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3072,13 +3226,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3087,13 +3241,13 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3101,7 +3255,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3109,10 +3263,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>51</v>
@@ -3124,16 +3278,18 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3181,13 +3337,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3196,21 +3352,21 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3221,7 +3377,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3233,16 +3389,18 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3290,13 +3448,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3305,10 +3463,10 @@
         <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3317,9 +3475,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3327,31 +3485,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3377,32 +3535,34 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>50</v>
@@ -3414,13 +3574,13 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3428,11 +3588,9 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3441,7 +3599,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>51</v>
@@ -3450,19 +3608,19 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3488,13 +3646,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3512,13 +3670,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3527,13 +3685,13 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -3541,11 +3699,9 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3566,17 +3722,15 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3601,13 +3755,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3625,7 +3779,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3640,21 +3794,21 @@
         <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3662,13 +3816,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -3677,15 +3831,17 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3710,34 +3866,32 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>50</v>
@@ -3749,13 +3903,13 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3763,9 +3917,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3783,18 +3939,20 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3819,13 +3977,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -3843,10 +4001,10 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>50</v>
@@ -3858,23 +4016,25 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B27" s="2"/>
+      <c r="B27" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
@@ -3883,28 +4043,28 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3954,13 +4114,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -3969,21 +4129,21 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3991,32 +4151,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4041,13 +4199,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4065,13 +4223,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4080,21 +4238,21 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4105,7 +4263,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4114,20 +4272,18 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4176,13 +4332,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4191,21 +4347,21 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4216,27 +4372,29 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4273,25 +4431,23 @@
         <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4300,13 +4456,13 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4314,9 +4470,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4325,7 +4483,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>51</v>
@@ -4334,19 +4492,19 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4396,13 +4554,13 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4411,20 +4569,904 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>241</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM31">
+  <autoFilter ref="A1:AM39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4434,7 +5476,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI30">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-MedRecordTreatmentLine.xlsx
+++ b/branches/master/StructureDefinition-MedRecordTreatmentLine.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="314">
   <si>
     <t>Path</t>
   </si>
@@ -499,10 +499,93 @@
     <t>MedicationStatement.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>treatmentPlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {event-basedOn}
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -556,13 +639,7 @@
     <t>Fulfils plan, proposal or order</t>
   </si>
   <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=SBADM or PROC or PCPR or OBS, moodCode=RQO orPLAN or PRP]</t>
@@ -691,13 +768,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1088,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1097,7 +1167,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.8203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1135,7 +1205,7 @@
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="140.7265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.0234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2924,7 +2994,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2946,14 +3016,12 @@
         <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2990,19 +3058,17 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3020,7 +3086,7 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3029,45 +3095,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3115,7 +3179,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3124,27 +3188,27 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3155,29 +3219,27 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3226,36 +3288,36 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3266,30 +3328,28 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3325,19 +3385,19 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3349,13 +3409,13 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3366,7 +3426,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3374,10 +3434,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3386,27 +3446,27 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
@@ -3448,25 +3508,25 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3475,9 +3535,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3491,26 +3551,24 @@
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3535,34 +3593,32 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>50</v>
@@ -3574,35 +3630,37 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -3611,17 +3669,15 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3646,13 +3702,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3670,13 +3726,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3685,10 +3741,10 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3697,41 +3753,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3755,13 +3815,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3779,36 +3839,36 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3816,13 +3876,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -3831,16 +3891,16 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3866,35 +3926,37 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3903,13 +3965,13 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3917,11 +3979,9 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3930,7 +3990,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>51</v>
@@ -3942,18 +4002,18 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3977,13 +4037,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4001,13 +4061,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4016,25 +4076,23 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4043,10 +4101,10 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -4055,18 +4113,18 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4114,13 +4172,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4129,13 +4187,13 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4143,7 +4201,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4160,21 +4218,23 @@
         <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4199,13 +4259,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4223,7 +4283,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>50</v>
@@ -4238,21 +4298,21 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4263,27 +4323,29 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4308,13 +4370,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4332,13 +4394,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4347,10 +4409,10 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4359,9 +4421,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4375,7 +4437,7 @@
         <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -4384,17 +4446,15 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4419,29 +4479,31 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4456,37 +4518,35 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4495,16 +4555,16 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4530,34 +4590,32 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>50</v>
@@ -4569,13 +4627,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4583,10 +4641,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>40</v>
@@ -4608,16 +4666,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4643,13 +4701,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4667,10 +4725,10 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>50</v>
@@ -4682,13 +4740,13 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4696,9 +4754,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4719,15 +4779,17 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4776,10 +4838,10 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>50</v>
@@ -4791,13 +4853,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4805,7 +4867,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4813,7 +4875,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4825,16 +4887,16 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4885,10 +4947,10 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>50</v>
@@ -4900,21 +4962,21 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4925,7 +4987,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4934,20 +4996,18 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4996,13 +5056,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5011,10 +5071,10 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5025,7 +5085,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5036,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5045,19 +5105,19 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5083,37 +5143,35 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5122,23 +5180,25 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5147,28 +5207,28 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5218,13 +5278,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5233,13 +5293,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5247,9 +5307,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5258,7 +5320,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>51</v>
@@ -5267,18 +5329,20 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5327,13 +5391,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5342,13 +5406,13 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5356,7 +5420,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5367,7 +5431,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>51</v>
@@ -5376,20 +5440,18 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5438,13 +5500,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5456,17 +5518,679 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM39">
+  <autoFilter ref="A1:AM45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5476,7 +6200,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
